--- a/TestCase_An_Binh_Linh.xlsx
+++ b/TestCase_An_Binh_Linh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kiemThu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D7034-DB55-4005-A7D0-51688DCF6441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6197A7-2794-4978-9505-2A462BBF90BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="303">
   <si>
     <t>TC16</t>
   </si>
@@ -258,9 +258,6 @@
     <t xml:space="preserve">CR1 - </t>
   </si>
   <si>
-    <t>1. Test login form</t>
-  </si>
-  <si>
     <t>Nhập dữ liệu hợp lệ</t>
   </si>
   <si>
@@ -332,58 +329,13 @@
 3.Bấm nút login</t>
   </si>
   <si>
-    <t>2.Test manage form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Bấm vào nút thêm vé </t>
-  </si>
-  <si>
-    <t>Thành công vào trang kế</t>
-  </si>
-  <si>
-    <t>1.Bấm vào nút lịch sử</t>
-  </si>
-  <si>
-    <t>1.Bấm vào nút quản trị</t>
-  </si>
-  <si>
     <t xml:space="preserve">lưu lịch sử nhập pass và user </t>
   </si>
   <si>
     <t xml:space="preserve">Không lưu lại lịch sử </t>
   </si>
   <si>
-    <t>3.Test ManageBus Form</t>
-  </si>
-  <si>
-    <t>1.Bấm vào nút thêm xe mới</t>
-  </si>
-  <si>
-    <t>1.Bấm vào nút tìm kiếm và sửa</t>
-  </si>
-  <si>
-    <t>Vào trang History</t>
-  </si>
-  <si>
-    <t>Vào trang ManageBus</t>
-  </si>
-  <si>
-    <t>Vào trang addBus</t>
-  </si>
-  <si>
-    <t>Vào trang SearchAndFix</t>
-  </si>
-  <si>
     <t>Thoát lại trang Manage</t>
-  </si>
-  <si>
-    <t>1.Bấm vào nút quay lại</t>
-  </si>
-  <si>
-    <t>Thành công vào trang trước</t>
-  </si>
-  <si>
-    <t>4.Test AddBus Form</t>
   </si>
   <si>
     <t>hiển thị pass dạng ẩn</t>
@@ -396,9 +348,6 @@
     <t>Pass dạng ẩn</t>
   </si>
   <si>
-    <t>vào trang Choose Ticket</t>
-  </si>
-  <si>
     <t>Tc12</t>
   </si>
   <si>
@@ -414,46 +363,6 @@
   </si>
   <si>
     <t>Nhập đầy đủ thông tin và hợp lệ</t>
-  </si>
-  <si>
-    <t>1.Bấm vào các vùng nhập tương ứng
-2.Nhập các thông tin hợp lệ
-(46-CS01, HCM, VT, 16/12/2020, 16:30</t>
-  </si>
-  <si>
-    <t>Thành công thêm mới</t>
-  </si>
-  <si>
-    <t>Nơi đến chỉ nhập: HN, VT, BC, BD, DN
-Nơi đi cố đinh HCM</t>
-  </si>
-  <si>
-    <t>Nhập thiếu 1 nội dung bất kì trong form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Bấm vào các vùng nhập tương ứng
-2.Nhập các thông tin hợp lệ và lần lượt thiếu ở mỗi vùng lần lượt từ trên xuống
-</t>
-  </si>
-  <si>
-    <t>Không thể thêm mới</t>
-  </si>
-  <si>
-    <t>Nhập trùng hoàn toàn dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Bấm vào các vùng nhập tương ứng
-2.Nhập các thông tin hợp lệ và giống với lần trước
-</t>
-  </si>
-  <si>
-    <t>Nhập ngoài các vùng nơi đến DEV yêu cầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Bấm vào các vùng nhập Nơi đến
-2.Nhập các thông tin phù hợp và nơi đến nhập khác với HN,VT,BC,BD,DN 
-(AN)
-</t>
   </si>
   <si>
     <t>Nhập ngày ở quá khứ</t>
@@ -478,14 +387,6 @@
 (Nhập 123:02, 12:12366, 123:565)</t>
   </si>
   <si>
-    <t>Nơi đến chỉ nhập: HN, VT, BC, BD, DN
-Nơi đi cố đinh HCM
-test lại</t>
-  </si>
-  <si>
-    <t>test lại ở mốc 60</t>
-  </si>
-  <si>
     <t>1.Nhập các thông tin khác hợp lệ
 2.Nhập thời gian không đúng cú pháp lần lượt ở giờ và phút
 (Nhập 123456, abchd)</t>
@@ -538,9 +439,6 @@
 không thể thêm ngày 29,30,31</t>
   </si>
   <si>
-    <t>Bị giới hạn 1 năm 2020 và 2021</t>
-  </si>
-  <si>
     <t>Kiểm tra các tháng 30 31 ngày</t>
   </si>
   <si>
@@ -552,9 +450,6 @@
 gồm tháng 1 đến tháng 12 năm 2021 và từ today/12/2020 đến 31/12/2020</t>
   </si>
   <si>
-    <t>Bị giới hạn 1 năm 2020 và 2022</t>
-  </si>
-  <si>
     <t>Nhập tháng lớn hơn 31 ngày</t>
   </si>
   <si>
@@ -574,9 +469,6 @@
     <t>Có thể thêm mới</t>
   </si>
   <si>
-    <t>Có thể thêm mới 0/0/2021</t>
-  </si>
-  <si>
     <t>Nhập tiếp tục sau khi hoàn tất</t>
   </si>
   <si>
@@ -591,86 +483,10 @@
 2.Đăng nhập lần lượt có cách trống đầu và cuối và cả 2</t>
   </si>
   <si>
-    <t>5.Test SearchBus Form</t>
-  </si>
-  <si>
-    <t>1.Nhập đúng ID xe vào ô
-2.nhấp Tìm kiếm</t>
-  </si>
-  <si>
-    <t>Tìm kiếm được đối tượng</t>
-  </si>
-  <si>
-    <t>tìm kiếm thông tin vơi ID đúng</t>
-  </si>
-  <si>
-    <t>tìm kiếm thông tin với ID sai</t>
-  </si>
-  <si>
-    <t>Không tìm được đối tượng</t>
-  </si>
-  <si>
     <t>quay lại trang trước</t>
   </si>
   <si>
-    <t>1.Tại trang bấm nút hủy bỏ</t>
-  </si>
-  <si>
     <t>Quay lại thành công</t>
-  </si>
-  <si>
-    <t>Tìm ra thông tin và xóa</t>
-  </si>
-  <si>
-    <t>1.Tại trang nhập đúng ID và bấm nút tìm kiếm
-2.Nhấn nút xóa 
-3.Tìm kiếm lại</t>
-  </si>
-  <si>
-    <t>Thành công xóa</t>
-  </si>
-  <si>
-    <t>Tìm ra thông tin không bấm tìm kiếm và bấm  xóa</t>
-  </si>
-  <si>
-    <t>1.Tại trang nhập đúng ID
-2.Nhấn nút xóa 
-3.Tìm kiếm lại</t>
-  </si>
-  <si>
-    <t>Tìm ra thông tin và sửa thông tin</t>
-  </si>
-  <si>
-    <t>1.Tại trang nhập đúng ID
-2.Nhấn nút thêm
-3.Xuất hiện trang sửa</t>
-  </si>
-  <si>
-    <t>Thành công chuyển trang</t>
-  </si>
-  <si>
-    <t>1.Tại trang nhập đúng ID và bấm nút tìm kiếm
-2.Nhấn nút thêm
-3.Xuất hiện trang sửa</t>
-  </si>
-  <si>
-    <t>Nhập sai ID và sửa/xóa thông tin</t>
-  </si>
-  <si>
-    <t>1.Tại trang nhập Sai ID và bấm nút tìm kiếm
-2.Nhấn nút thêm/xóa
-3.Xuất hiện trang sửa</t>
-  </si>
-  <si>
-    <t>Không thể xóa/sửa</t>
-  </si>
-  <si>
-    <t>Nhập sai ID và tìm kiếm và sửa/xóa thông tin</t>
-  </si>
-  <si>
-    <t>1.Tại trang nhập Sai ID 
-2.Nhấn nút thêm/xóa
-3.Xuất hiện trang sửa</t>
   </si>
   <si>
     <t>nhập giờ đơn</t>
@@ -702,27 +518,6 @@
 (8:8) và (0:0)</t>
   </si>
   <si>
-    <t>1.Nhập ID sai xe vào ô
-2.nhấp Tìm kiếm
-(nhập sai id, nhập tuyến, nhập giờ, nhập ngày, cách trống)</t>
-  </si>
-  <si>
-    <t>Để trống ô tìm kiếm và bấm search và bấm xóa/Sửa</t>
-  </si>
-  <si>
-    <t>1.Nhấn nút tìm kiếm
-2.Nhấn nút xóa/sửa</t>
-  </si>
-  <si>
-    <t>không thể thao tác</t>
-  </si>
-  <si>
-    <t>Để trống ô tìm kiếm  và bấm xóa/Sửa</t>
-  </si>
-  <si>
-    <t>1.Nhấn nút xóa/sửa</t>
-  </si>
-  <si>
     <t>6.Test FixBus Form</t>
   </si>
   <si>
@@ -776,9 +571,6 @@
     <t>BTK-01-Admin</t>
   </si>
   <si>
-    <t>test ok</t>
-  </si>
-  <si>
     <t>Có thể sửa mới</t>
   </si>
   <si>
@@ -791,66 +583,13 @@
     <t>TC23</t>
   </si>
   <si>
-    <t>TC24</t>
-  </si>
-  <si>
     <t>TC25</t>
   </si>
   <si>
-    <t>Biển số xe không dùng "-"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Nhập các thông tin khác hợp lệ
-2.Nhập biển số xe hợp lệ với dấu / </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biển số xe nhập theo 1-4 và 3-4 </t>
-  </si>
-  <si>
-    <t>1.Nhập các thông tin khác hợp lệ
-2.Nhập biển số xe hợp lệ nhưng phần đầu thay thành 1 số 
-(1-CS01, 123-CS01)</t>
-  </si>
-  <si>
-    <t>Biển số xe nhập theo 2-3 và 2-5</t>
-  </si>
-  <si>
-    <t>1.Nhập các thông tin khác hợp lệ
-2.Nhập biển số xe hợp lệ nhưng phần đầu thay thành 1 số 
-(12-CS0, 12-CS014)</t>
-  </si>
-  <si>
-    <t>Biển số xe nhập không có ngắt nối</t>
-  </si>
-  <si>
-    <t>1.Nhập các thông tin khác hợp lệ
-2.Nhập biển số xe hợp lệ nhưng phần đầu thay thành 1 số 
-(12CS0, 12CS014)</t>
-  </si>
-  <si>
     <t>TC26</t>
   </si>
   <si>
-    <t>Biển số xe nhập đúng chuẩn nhưng bằng kí tự toàn bộ phần đầu</t>
-  </si>
-  <si>
-    <t>1.Nhập các thông tin khác hợp lệ
-2.Nhập biển số xe hợp lệ nhưng phần đầu thay thành 1 số 
-(CD-CS0, AB-CS04)</t>
-  </si>
-  <si>
     <t>TC27</t>
-  </si>
-  <si>
-    <t>Biển số xe nhập đúng chuẩn nhưng bằng kí tự toàn bộ phần sau số/chữ</t>
-  </si>
-  <si>
-    <t>1.Nhập các thông tin khác hợp lệ
-2.Nhập biển số xe hợp lệ nhưng phần đầu thay thành 1 số 
-(12-CSAS, 12-9004)</t>
-  </si>
-  <si>
-    <t>Biển số xe định dạng 2(số) - 4(2 chữ 2 số)</t>
   </si>
   <si>
     <t>Nhập pass vượt quá giới hạn lưu trữ</t>
@@ -869,6 +608,525 @@
 2.nhập đúng user
 3.nhập pass đúng trong đó có ký tự đặt biệt
 </t>
+  </si>
+  <si>
+    <t>tìm kiếm với thông tin chuyến bay đúng (nơi đi, nơi đến, ngày bay)</t>
+  </si>
+  <si>
+    <t>Tìm kiếm được chuyến bay</t>
+  </si>
+  <si>
+    <t>1. Chọn nơi đi
+2.Chọn nơi đến
+3.chọn ngày bay
+4. nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>hiển thị thông báo không tìm được chuyến bay</t>
+  </si>
+  <si>
+    <t>1. Chọn nơi đi (Origin)
+2.Chọn nơi đến(Destination)
+3.chọn ngày bay(Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>tìm kiếm với thông tin chuyến bay không khớp (nơi đi, nơi đến, ngày bay)</t>
+  </si>
+  <si>
+    <t>1.Tại trang bấm nút Back</t>
+  </si>
+  <si>
+    <t>Bỏ trốn nơi đi (origin)</t>
+  </si>
+  <si>
+    <t>1. Bỏ Trống nơi đi (Origin)
+2.Chọn nơi đến(Destination)
+3.chọn ngày bay(Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>Thông báo Nơi đi (origin) đang bỏ trống</t>
+  </si>
+  <si>
+    <t>Bỏ trốn nơi đến (Destination)</t>
+  </si>
+  <si>
+    <t>Thông báo nơi đến (Destination) đang bỏ trống</t>
+  </si>
+  <si>
+    <t>Bỏ trốn ngày bay (Day)</t>
+  </si>
+  <si>
+    <t>1. Chọn nơi đi (Origin)
+2.Bỏ Trống đến(Destination)
+3.chọn ngày bay(Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>1. Chọn nơi đi (Origin)
+2.Chọn nơi đến(Destination)
+3.Bỏ Trống ngày bay(Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>Thông báo ngày bay (Day) đang bỏ trống</t>
+  </si>
+  <si>
+    <t>Thông báo thông tin trống</t>
+  </si>
+  <si>
+    <t>Tìm được và chọn chuyến bay để tiến hành đặt vé</t>
+  </si>
+  <si>
+    <t>1.Nhập thông tin đúng
+2.nhấn tìm kiếm(Search)
+3.Chọn chuyến bay</t>
+  </si>
+  <si>
+    <t>Chọn được chuyến bay và chuyển qua Form thông tin khách hàng (Contact info)</t>
+  </si>
+  <si>
+    <t>Vào trang Book a Flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn Book a Flight
+</t>
+  </si>
+  <si>
+    <t>vào được Form Search Flight</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname và số điện thoại đúng</t>
+  </si>
+  <si>
+    <t>1.nhập Fullname đúng
+2.nhập Phone đúng
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>chuyển qua form Confirm</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname có số và số điện thoại đúng</t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có số
+2.nhập Phone đúng
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>thông báo nhập sai fullname</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname Đúng và số điện thoại có chữ</t>
+  </si>
+  <si>
+    <t>1.nhập Fullname đúng
+2.nhập Phone Có chữ
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>thông báo nhập sai Phone</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname có ký tự đặt biệt và số điện thoại đúng</t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có ký tự đặt biệt
+2.nhập Phone đúng
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Nhập Fullname đúng và số điện thoại có ký tự đặt biệt </t>
+  </si>
+  <si>
+    <t>1.nhập Fullname đúng
+2.nhập Phone có ký tự đặt biệt 
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Chọn ngày trong quá khứ</t>
+  </si>
+  <si>
+    <t>1. Chọn nơi đi (Origin)
+2.Chọn nơi đến(Destination)
+3.chọn ngày trong quá khứ (Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>Thông báo bạn đã chọn ngày trong quá khứ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Bỏ trống Fullname và nhập số điện thoại </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo Fullname trống </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: nhập Fullname và Bỏ trống số điện thoại </t>
+  </si>
+  <si>
+    <t>1.Bỏ trống fullname
+2.nhập Phone đúng
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>1.nhập fullname
+2.Bỏ trống Phone
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông báo Phone trống </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Bỏ trống Fullname và Bỏ trống số điện thoại </t>
+  </si>
+  <si>
+    <t>1.Bỏ trống fullname
+2.Bỏ trống Phone
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Nhập Fullname có ký tự đặt biệt và Nhập số điện thoại có ký tự đặt biệt </t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có ký tự đặt biệt
+2.nhập Phone có ký tự đặt biệt
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Thông báo Thông tin Khách hàng sai</t>
+  </si>
+  <si>
+    <t>thông báo thông tin khách hàng trống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Nhập Fullname có số và Nhập số điện thoại có chữ </t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có số
+2.nhập Phone có chữ
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Nhập Fullname có ký tự đặt biệt và Nhập số điện thoại có chữ </t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có ký tự đặt biệt
+2.nhập Phone có chữ
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname có số và Nhập số điện thoại có ký tự đặt biệt</t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có số
+2.nhập Phone có ký tự đặt biệt
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname Đúng và Nhập số điện thoại đặt biệt(vd: 113,911….)</t>
+  </si>
+  <si>
+    <t>Thông báo Phone không đúng quy định</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Nhập Fullname có số và Bỏ trống số điện thoại </t>
+  </si>
+  <si>
+    <t>1.nhập Fullname đúng
+2.nhập Phone số đặt biệt
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Thông báo nhập Fullname sai và bỏ trống Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Contact info: Nhập Fullname có ký tự đặt biệt và Bỏ trống số điện thoại </t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có ký tự đặt biệt
+2.Bỏ trống Phone 
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Form Contact info: Bỏ trống Fullname và Nhấp số điện thoại có ký tự đặt biệt</t>
+  </si>
+  <si>
+    <t>1.Bỏ trống Fullname
+2.nhập Phone có ký tự đặt biệt
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>Thông báo nhập sai Phone và Bỏ Trống Fullname</t>
+  </si>
+  <si>
+    <t>Form Contact info: Nhập Fullname Đúng và Nhập số điện thoại dài hơn 10 số</t>
+  </si>
+  <si>
+    <t>Form Confirm: chọn các thông tin để sửa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click chọn các thông tin để chỉnh sửa
+</t>
+  </si>
+  <si>
+    <t>không thể sửa được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Confirm: chọn Cancel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Chọn Cancel
+</t>
+  </si>
+  <si>
+    <t>quay lại form Search</t>
+  </si>
+  <si>
+    <t>Form Confirm: chọn Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Chọn Confirm
+</t>
+  </si>
+  <si>
+    <t>Thông báo có muốn thanh toán hay không</t>
+  </si>
+  <si>
+    <t>Form Confirm -&gt; Thông báo Thanh toán: chọn No</t>
+  </si>
+  <si>
+    <t>1.Chọn No</t>
+  </si>
+  <si>
+    <t>Thông báo Đặt vé thành công và chưa thanh toán</t>
+  </si>
+  <si>
+    <t>Form Confirm -&gt; Thông báo Thanh toán: chọn Yes</t>
+  </si>
+  <si>
+    <t>1.Chọn Yes</t>
+  </si>
+  <si>
+    <t>Chuyển qua form Payment</t>
+  </si>
+  <si>
+    <t>1.thanh toán
+2.chọn xác nhận</t>
+  </si>
+  <si>
+    <t>Thông báo Mua vé Thành công và đã thanh toán</t>
+  </si>
+  <si>
+    <t>Form Payment: thanh toán</t>
+  </si>
+  <si>
+    <t>Form Payment: không khanh toán</t>
+  </si>
+  <si>
+    <t>1.không thanh toán</t>
+  </si>
+  <si>
+    <t>Thông báo chưa thanh toán và đã đặt vé thành công</t>
+  </si>
+  <si>
+    <t>Bỏ trống tất cả thông tin</t>
+  </si>
+  <si>
+    <t>Bỏ trống nơi đi, nơi đến</t>
+  </si>
+  <si>
+    <t>1. Bỏ Trống đi (Origin)
+2.Bỏ Trống đến(Destination)
+3.Bỏ Trống ngày bay(Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>Bỏ trống nơi đi, ngày bay</t>
+  </si>
+  <si>
+    <t>1. Bỏ Trống nơi đi (Origin)
+2.Chọn nơi đến(Destination)
+3.Bỏ Trống ngày bay  (Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>1. Bỏ Trống nơi đi (Origin)
+2.Bỏ Trống nơi đến(Destination)
+3.Chọn ngày bay đúng (Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>Thông báo Nơi đi(origin) và nơi đến(destination) đang bỏ trống</t>
+  </si>
+  <si>
+    <t>Thông báo Nơi đi(origin) và Ngày bay(day) đang bỏ trống</t>
+  </si>
+  <si>
+    <t>Bỏ trống nơi đến, ngày bay</t>
+  </si>
+  <si>
+    <t>1. Chọn nơi đi (Origin)
+2.Bỏ Trống nơi đến(Destination)
+3.Bỏ Trống ngày bay  (Day)
+4. nhấn tìm kiếm(Search)</t>
+  </si>
+  <si>
+    <t>Thông báo Nơi đến(Destination) và Ngày bay(day) đang bỏ trống</t>
+  </si>
+  <si>
+    <t>1.nhập Fullname có số
+2.Bỏ trống Phone 
+3.nhấn continue</t>
+  </si>
+  <si>
+    <t>1.Chọn dấu X</t>
+  </si>
+  <si>
+    <t>Form Confirm -&gt; Thông báo Thanh toán: chọn Dấu X</t>
+  </si>
+  <si>
+    <t>Quay trở về Form Confirm</t>
+  </si>
+  <si>
+    <t>Form Payment: chọn Quay về Home</t>
+  </si>
+  <si>
+    <t>1.Chọn quay về Home</t>
+  </si>
+  <si>
+    <t>Thành công quay về Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Test login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Test Book a Flight </t>
+  </si>
+  <si>
+    <t>3.Test Home</t>
+  </si>
+  <si>
+    <t>Chọn Buy Ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click chọn Buy ticket
+</t>
+  </si>
+  <si>
+    <t>chuyển qua form Search Flight</t>
+  </si>
+  <si>
+    <t>Chọn Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click chọn Admin
+</t>
+  </si>
+  <si>
+    <t>chuyển qua form Login</t>
+  </si>
+  <si>
+    <t>Chọn Dấu X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click chọn dấu 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tắt ứng dụng</t>
+  </si>
+  <si>
+    <t>Chọn chữ Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click chọn chữ Home
+</t>
+  </si>
+  <si>
+    <t>Không thể thực hiện được</t>
+  </si>
+  <si>
+    <t>con Trỏ đang ở User bấm Tap sẽ chuyển passWord</t>
+  </si>
+  <si>
+    <t>1. nhập User 
+2.nhấn Phím Tap</t>
+  </si>
+  <si>
+    <t>Con Trỏ chuyển qua ô PassWord</t>
+  </si>
+  <si>
+    <t>Nhân phím Enter Trong Form Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Đăng nhập vào Admin
+2.Nhấm Phím Enter 
+</t>
+  </si>
+  <si>
+    <t>Không thể thực hiện</t>
+  </si>
+  <si>
+    <t>Nhấn Enter Khi nhập đúng Username và PassWord</t>
+  </si>
+  <si>
+    <t>1.Nhập Đúng Username và Password
+2.Nhấn Phím Enter</t>
+  </si>
+  <si>
+    <t>Chức năng giống với nút Login</t>
+  </si>
+  <si>
+    <t>Click chọn Add a Flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Đăng nhập vào Admin
+2.Chọn Add a Flight
+</t>
+  </si>
+  <si>
+    <t>Thành công vào Form Add a Flight</t>
+  </si>
+  <si>
+    <t>Click chọn Fix a Flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Đăng nhập vào Admin
+2.Chọn Fix a Flight
+</t>
+  </si>
+  <si>
+    <t>Thành công vào Form Fix a Flight</t>
+  </si>
+  <si>
+    <t>Chọn nút Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Đăng nhập vào Admin
+2.Chọn Back
+</t>
+  </si>
+  <si>
+    <t>3.Test Add A Flight</t>
+  </si>
+  <si>
+    <t>3.Test Admin (Manage)</t>
+  </si>
+  <si>
+    <t>Thành công quay về Manage</t>
+  </si>
+  <si>
+    <t>Nhập Thông tin Hợp lệ của chuyến bay</t>
+  </si>
+  <si>
+    <t>1. nhập tất cả thông tin hợp lệ
+2. click Add a flight</t>
+  </si>
+  <si>
+    <t>Thêm Thành Công chuyến bay và Thông báo thêm Thành công</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1536,17 +1794,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1560,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1797,9 +2044,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1857,21 +2101,6 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,18 +2128,90 @@
     <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1920,48 +2221,12 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1974,44 +2239,14 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2441,11 +2676,11 @@
       <c r="B6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="132" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
+      <c r="C6" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="128"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -2454,11 +2689,11 @@
       <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="132" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133"/>
+      <c r="C7" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -2520,18 +2755,18 @@
         <v>20</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="G12" s="88"/>
       <c r="H12" s="90"/>
     </row>
     <row r="13" spans="1:8" s="36" customFormat="1">
-      <c r="B13" s="100"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
       <c r="F13" s="77"/>
-      <c r="G13" s="99"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:8" s="37" customFormat="1" ht="13.2">
@@ -2540,7 +2775,7 @@
       <c r="D14" s="40"/>
       <c r="E14" s="41"/>
       <c r="F14" s="77"/>
-      <c r="G14" s="99"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8" s="37" customFormat="1" ht="13.2">
@@ -2643,22 +2878,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="96" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="96" customWidth="1"/>
     <col min="3" max="3" width="42.109375" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="9" style="116"/>
+    <col min="9" max="9" width="9" style="115"/>
     <col min="10" max="10" width="18" style="97" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2666,79 +2901,79 @@
       <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="101"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="100"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="101"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
+      <c r="B3" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1">
       <c r="A4" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4">
       <c r="A5" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2746,22 +2981,22 @@
         <v>46</v>
       </c>
       <c r="B6" s="94">
-        <f>COUNTIF(I12:I95,"Pass")</f>
+        <f>COUNTIF(I12:I108,"Pass")</f>
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I817,"Pending")</f>
+        <f>COUNTIF(I10:I830,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -2769,1818 +3004,1980 @@
         <v>10</v>
       </c>
       <c r="B7" s="95">
-        <f>COUNTIF(I12:I95,"Fail")</f>
+        <f>COUNTIF(I12:I108,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A98) -15</f>
-        <v>69</v>
+        <f>COUNTA(A12:A111) -15</f>
+        <v>74</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="102"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="156" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I9" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="152" t="s">
+      <c r="J9" s="134" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="152"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="154" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="51.6" customHeight="1" outlineLevel="1">
+      <c r="A13" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="51.6" customHeight="1" outlineLevel="1">
-      <c r="A13" s="107" t="s">
+      <c r="C13" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
+      <c r="A14" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="105"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A15" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="110"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A16" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="110"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
+      <c r="A17" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="110"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="84" customHeight="1" outlineLevel="1">
+      <c r="A18" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="110"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="77.400000000000006" customHeight="1" outlineLevel="1">
+      <c r="A19" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="104"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A20" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A21" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A22" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="119"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A23" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="119"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A24" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="119"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A25" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="119"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A26" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="119"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A27" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="119"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A28" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="119"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A29" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="119"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="119"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="154" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="57.6" customHeight="1" outlineLevel="1">
+      <c r="A32" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="142" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="85"/>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="44.4" customHeight="1" outlineLevel="1">
-      <c r="A14" s="112" t="s">
+      <c r="B32" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="93"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="57.6" customHeight="1" outlineLevel="1">
+      <c r="A33" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="106"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A15" s="107" t="s">
+      <c r="B33" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="93"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A34" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="111"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A16" s="107" t="s">
+      <c r="B34" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="93"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="82.95" customHeight="1">
+      <c r="A35" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="111"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="78" customHeight="1" outlineLevel="1">
-      <c r="A17" s="107" t="s">
+      <c r="B35" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="165" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="93"/>
+    </row>
+    <row r="36" spans="1:10" s="92" customFormat="1" ht="70.95" customHeight="1" outlineLevel="1">
+      <c r="A36" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="111"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="84" customHeight="1" outlineLevel="1">
-      <c r="A18" s="107" t="s">
+      <c r="B36" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="93"/>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1">
+      <c r="A37" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="111"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="77.400000000000006" customHeight="1" outlineLevel="1">
-      <c r="A19" s="107" t="s">
+      <c r="B37" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="165" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="93"/>
+    </row>
+    <row r="38" spans="1:10" s="92" customFormat="1" ht="118.2" customHeight="1" outlineLevel="1">
+      <c r="A38" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="105"/>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="107" t="s">
+      <c r="B38" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="93"/>
+    </row>
+    <row r="39" spans="1:10" s="92" customFormat="1" ht="118.2" customHeight="1" outlineLevel="1">
+      <c r="A39" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="85"/>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A21" s="107" t="s">
+      <c r="B39" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="165" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="163" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="93"/>
+    </row>
+    <row r="40" spans="1:10" s="92" customFormat="1" ht="118.2" customHeight="1" outlineLevel="1">
+      <c r="A40" s="123"/>
+      <c r="B40" s="124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="165" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="163" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="93"/>
+    </row>
+    <row r="41" spans="1:10" s="92" customFormat="1" ht="118.2" customHeight="1" outlineLevel="1">
+      <c r="A41" s="123"/>
+      <c r="B41" s="124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="165" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="163" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="93"/>
+    </row>
+    <row r="42" spans="1:10" s="92" customFormat="1" ht="118.2" customHeight="1" outlineLevel="1">
+      <c r="A42" s="123"/>
+      <c r="B42" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="165" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="163" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="93"/>
+    </row>
+    <row r="43" spans="1:10" ht="78" customHeight="1">
+      <c r="A43" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="165" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="163" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="93"/>
+    </row>
+    <row r="44" spans="1:10" ht="78" customHeight="1">
+      <c r="A44" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="85"/>
-    </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A22" s="124" t="s">
+      <c r="B44" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="165" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="163" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="93"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="58.2" customHeight="1" outlineLevel="1">
+      <c r="A45" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="87" t="s">
+      <c r="B45" s="124" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="93"/>
+    </row>
+    <row r="46" spans="1:10" s="92" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
+      <c r="A46" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="93"/>
+    </row>
+    <row r="47" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A47" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="165" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="93"/>
+    </row>
+    <row r="48" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A48" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="93"/>
+    </row>
+    <row r="49" spans="1:10" s="92" customFormat="1" ht="73.8" customHeight="1" outlineLevel="1">
+      <c r="A49" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="165" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="163" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="93"/>
+    </row>
+    <row r="50" spans="1:10" s="92" customFormat="1" ht="70.8" customHeight="1" outlineLevel="1">
+      <c r="A50" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="93"/>
+    </row>
+    <row r="51" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A51" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="93"/>
+    </row>
+    <row r="52" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A52" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="165" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="93"/>
+    </row>
+    <row r="53" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A53" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="165" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="121"/>
+    </row>
+    <row r="54" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A54" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="165" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="121"/>
+    </row>
+    <row r="55" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
+      <c r="A55" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="165" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
+    </row>
+    <row r="56" spans="1:10" s="4" customFormat="1" ht="66.599999999999994" customHeight="1" outlineLevel="1">
+      <c r="A56" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="165" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="103"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="93"/>
+    </row>
+    <row r="57" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A57" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="93"/>
+    </row>
+    <row r="58" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A58" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="H58" s="103"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="93"/>
+    </row>
+    <row r="59" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A59" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="165" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="93"/>
+    </row>
+    <row r="60" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A60" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="93"/>
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A61" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="165" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="145" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="93"/>
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A62" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="165" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="93"/>
+    </row>
+    <row r="63" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A63" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="165" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="145" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="93"/>
+    </row>
+    <row r="64" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A64" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="165" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="93"/>
+    </row>
+    <row r="65" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A65" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="93"/>
+    </row>
+    <row r="66" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A66" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="117" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" s="165" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="145" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="121"/>
+    </row>
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A67" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="145" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="147"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="121"/>
+    </row>
+    <row r="68" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A68" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="122" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="165" t="s">
+        <v>241</v>
+      </c>
+      <c r="D68" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="103"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="93"/>
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A69" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="122" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="D69" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="147"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="93"/>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A70" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="165" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="145" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="147"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="120"/>
+      <c r="J70" s="93"/>
+    </row>
+    <row r="71" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A71" s="154" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="155"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="155"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="155"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="156"/>
+    </row>
+    <row r="72" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A72" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="145" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="93"/>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A73" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="165" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="145" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="147"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="93"/>
+    </row>
+    <row r="74" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A74" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="120"/>
+      <c r="J74" s="93"/>
+    </row>
+    <row r="75" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A75" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="145" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" s="147"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="120"/>
+      <c r="J75" s="93"/>
+    </row>
+    <row r="76" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A76" s="106"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="120"/>
+      <c r="J76" s="93"/>
+    </row>
+    <row r="77" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A77" s="154" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="155"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="155"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="155"/>
+      <c r="G77" s="155"/>
+      <c r="H77" s="155"/>
+      <c r="I77" s="155"/>
+      <c r="J77" s="156"/>
+    </row>
+    <row r="78" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A78" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="165" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="145" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" s="147"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="93"/>
+    </row>
+    <row r="79" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A79" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="165" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="145" t="s">
+        <v>291</v>
+      </c>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="120"/>
+      <c r="J79" s="93"/>
+    </row>
+    <row r="80" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A80" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="165" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="145" t="s">
+        <v>294</v>
+      </c>
+      <c r="E80" s="147"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="120"/>
+      <c r="J80" s="93"/>
+    </row>
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A81" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="165" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="145" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="147"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="120"/>
+      <c r="J81" s="93"/>
+    </row>
+    <row r="82" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A82" s="106"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="103"/>
+      <c r="I82" s="120"/>
+      <c r="J82" s="93"/>
+    </row>
+    <row r="83" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A83" s="154" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" s="155"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="155"/>
+      <c r="G83" s="155"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="156"/>
+    </row>
+    <row r="84" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A84" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="C84" s="165" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="145" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="147"/>
+      <c r="F84" s="147"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="120"/>
+      <c r="J84" s="93"/>
+    </row>
+    <row r="85" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A85" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="165" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" s="145" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="147"/>
+      <c r="F85" s="147"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="120"/>
+      <c r="J85" s="93"/>
+    </row>
+    <row r="86" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A86" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="122"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="93"/>
+    </row>
+    <row r="87" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A87" s="106"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="165"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="120"/>
+      <c r="J87" s="93"/>
+    </row>
+    <row r="88" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A88" s="106"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="103"/>
+      <c r="I88" s="120"/>
+      <c r="J88" s="93"/>
+    </row>
+    <row r="89" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
+      <c r="A89" s="106"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="103"/>
+      <c r="I89" s="120"/>
+      <c r="J89" s="93"/>
+    </row>
+    <row r="90" spans="1:10" s="92" customFormat="1" ht="96" customHeight="1" outlineLevel="1"/>
+    <row r="91" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1"/>
+    <row r="92" spans="1:10" s="92" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
+      <c r="A92" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="155"/>
+      <c r="C92" s="155"/>
+      <c r="D92" s="155"/>
+      <c r="E92" s="155"/>
+      <c r="F92" s="155"/>
+      <c r="G92" s="155"/>
+      <c r="H92" s="155"/>
+      <c r="I92" s="155"/>
+      <c r="J92" s="156"/>
+    </row>
+    <row r="93" spans="1:10" s="92" customFormat="1" ht="70.95" customHeight="1" outlineLevel="1">
+      <c r="A93" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="147"/>
+      <c r="F93" s="147"/>
+      <c r="H93" s="103"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="93"/>
+    </row>
+    <row r="94" spans="1:10" s="92" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A94" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="145" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="147"/>
+      <c r="F94" s="147"/>
+      <c r="H94" s="103"/>
+      <c r="I94" s="112"/>
+      <c r="J94" s="93"/>
+    </row>
+    <row r="95" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1">
+      <c r="A95" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="147"/>
+      <c r="F95" s="147"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="103"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="93"/>
+    </row>
+    <row r="96" spans="1:10" s="4" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A96" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="147"/>
+      <c r="F96" s="147"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="112"/>
+      <c r="J96" s="93"/>
+    </row>
+    <row r="97" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A97" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="147"/>
+      <c r="F97" s="147"/>
+      <c r="H97" s="103"/>
+      <c r="I97" s="120"/>
+      <c r="J97" s="93"/>
+    </row>
+    <row r="98" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A98" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="147"/>
+      <c r="F98" s="147"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="120"/>
+      <c r="J98" s="93"/>
+    </row>
+    <row r="99" spans="1:10" s="4" customFormat="1" ht="90.6" customHeight="1" outlineLevel="1">
+      <c r="A99" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="147"/>
+      <c r="F99" s="147"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="120"/>
+      <c r="J99" s="93"/>
+    </row>
+    <row r="100" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A100" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="147"/>
+      <c r="F100" s="147"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="120"/>
+      <c r="J100" s="93"/>
+    </row>
+    <row r="101" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A101" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="147"/>
+      <c r="F101" s="147"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="120"/>
+      <c r="J101" s="93"/>
+    </row>
+    <row r="102" spans="1:10" s="4" customFormat="1" ht="39.6" outlineLevel="1">
+      <c r="A102" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="145" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="147"/>
+      <c r="F102" s="147"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="120"/>
+      <c r="J102" s="93"/>
+    </row>
+    <row r="103" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A103" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="140"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="125"/>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A23" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="140"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="125"/>
-    </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A24" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="125"/>
-    </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A25" s="107" t="s">
+      <c r="D103" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="147"/>
+      <c r="F103" s="147"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="120"/>
+      <c r="J103" s="93"/>
+    </row>
+    <row r="104" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A104" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="147"/>
+      <c r="F104" s="147"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="120"/>
+      <c r="J104" s="93"/>
+    </row>
+    <row r="105" spans="1:10" s="4" customFormat="1" ht="52.8" outlineLevel="1">
+      <c r="A105" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="125"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A26" s="107" t="s">
+      <c r="B105" s="117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="147"/>
+      <c r="F105" s="147"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="93"/>
+    </row>
+    <row r="106" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A106" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="125"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A27" s="107" t="s">
+      <c r="B106" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="147"/>
+      <c r="F106" s="147"/>
+      <c r="H106" s="103"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="93"/>
+    </row>
+    <row r="107" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A107" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="125"/>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="125"/>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="125"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" outlineLevel="1">
-      <c r="A31" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="138"/>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="43.95" customHeight="1" outlineLevel="1">
-      <c r="A32" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="120"/>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="82.95" customHeight="1">
-      <c r="A33" s="118" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="122"/>
-    </row>
-    <row r="34" spans="1:10" s="92" customFormat="1" ht="70.95" customHeight="1" outlineLevel="1">
-      <c r="A34" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="93"/>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1">
-      <c r="A35" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="138"/>
-    </row>
-    <row r="36" spans="1:10" s="92" customFormat="1" ht="45.6" customHeight="1" outlineLevel="1">
-      <c r="A36" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="1:10" ht="78" customHeight="1">
-      <c r="A37" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="93"/>
-    </row>
-    <row r="38" spans="1:10" ht="78" customHeight="1">
-      <c r="A38" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="93"/>
-    </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" outlineLevel="1">
-      <c r="A39" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="138"/>
-    </row>
-    <row r="40" spans="1:10" s="92" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A40" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="123" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="142" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A41" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A42" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="91" t="s">
+      <c r="B107" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="93" t="s">
+      <c r="C107" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="147"/>
+      <c r="F107" s="147"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="120"/>
+      <c r="J107" s="93"/>
+    </row>
+    <row r="108" spans="1:10" s="4" customFormat="1" ht="70.2" customHeight="1">
+      <c r="A108" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" s="147"/>
+      <c r="F108" s="147"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="120"/>
+      <c r="J108" s="93"/>
+    </row>
+    <row r="109" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A109" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="117" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="92" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="91" t="s">
+      <c r="C109" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="92" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="93"/>
-    </row>
-    <row r="45" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A45" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="93"/>
-    </row>
-    <row r="46" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="91" t="s">
+      <c r="E109" s="147"/>
+      <c r="F109" s="147"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="120"/>
+      <c r="J109" s="93"/>
+    </row>
+    <row r="110" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A110" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A47" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="123" t="s">
+      <c r="C110" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="D110" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="147"/>
+      <c r="F110" s="147"/>
+      <c r="H110" s="103"/>
+      <c r="I110" s="120"/>
+      <c r="J110" s="93"/>
+    </row>
+    <row r="111" spans="1:10" ht="76.95" customHeight="1">
+      <c r="A111" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="147"/>
+      <c r="F111" s="147"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="120"/>
+      <c r="J111" s="93"/>
+    </row>
+    <row r="112" spans="1:10" ht="58.2" customHeight="1">
+      <c r="A112" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="127"/>
-    </row>
-    <row r="48" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A48" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="91" t="s">
+      <c r="C112" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="127"/>
-    </row>
-    <row r="49" spans="1:10" s="92" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="127"/>
-    </row>
-    <row r="50" spans="1:10" s="4" customFormat="1" ht="66.599999999999994" customHeight="1" outlineLevel="1">
-      <c r="A50" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="93"/>
-    </row>
-    <row r="51" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A51" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="91" t="s">
+      <c r="D112" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="147"/>
+      <c r="F112" s="147"/>
+      <c r="G112" s="92"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="120"/>
+      <c r="J112" s="93"/>
+    </row>
+    <row r="113" spans="1:10" ht="60" customHeight="1">
+      <c r="A113" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="142" t="s">
+      <c r="C113" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A52" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="143"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A53" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="143"/>
-      <c r="F53" s="143"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="93"/>
-    </row>
-    <row r="54" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A54" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="91" t="s">
+      <c r="D113" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="143"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="93" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A55" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="93" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A56" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="93"/>
-    </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A57" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="93"/>
-    </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A58" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="93"/>
-    </row>
-    <row r="59" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A59" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="123" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="127"/>
-    </row>
-    <row r="60" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A60" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="93"/>
-    </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A61" s="107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B61" s="128" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="93" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A62" s="107" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="128" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="143"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="93"/>
-    </row>
-    <row r="63" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A63" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B63" s="128" t="s">
-        <v>217</v>
-      </c>
-      <c r="C63" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="143"/>
-      <c r="F63" s="143"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="93"/>
-    </row>
-    <row r="64" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A64" s="107" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="128" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="143"/>
-      <c r="F64" s="143"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="93"/>
-    </row>
-    <row r="65" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A65" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="B65" s="128" t="s">
-        <v>222</v>
-      </c>
-      <c r="C65" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="D65" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="93"/>
-    </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" ht="79.2" customHeight="1">
-      <c r="A66" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="B66" s="128" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E66" s="143"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="93"/>
-    </row>
-    <row r="67" spans="1:10" s="92" customFormat="1" ht="23.4" customHeight="1" outlineLevel="1">
-      <c r="A67" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="138"/>
-    </row>
-    <row r="68" spans="1:10" s="92" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A68" s="129" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="168" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="169"/>
-      <c r="F68" s="169"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="93"/>
-    </row>
-    <row r="69" spans="1:10" s="92" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A69" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="168" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" s="169"/>
-      <c r="F69" s="169"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="93"/>
-    </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A70" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="168" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="169"/>
-      <c r="F70" s="169"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="93"/>
-    </row>
-    <row r="71" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A71" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="E71" s="169"/>
-      <c r="F71" s="169"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="93"/>
-    </row>
-    <row r="72" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A72" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" s="169"/>
-      <c r="F72" s="169"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="93"/>
-    </row>
-    <row r="73" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A73" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="D73" s="168" t="s">
-        <v>170</v>
-      </c>
-      <c r="E73" s="169"/>
-      <c r="F73" s="169"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="93"/>
-    </row>
-    <row r="74" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A74" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="D74" s="168" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" s="169"/>
-      <c r="F74" s="169"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="93"/>
-    </row>
-    <row r="75" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A75" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="130" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="D75" s="168" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" s="169"/>
-      <c r="F75" s="169"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="93"/>
-    </row>
-    <row r="76" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A76" s="129" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="168" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="93"/>
-    </row>
-    <row r="77" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A77" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" s="168" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="169"/>
-      <c r="F77" s="169"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="131"/>
-      <c r="J77" s="93"/>
-    </row>
-    <row r="78" spans="1:10" s="4" customFormat="1" ht="79.95" customHeight="1">
-      <c r="A78" s="129" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="130" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" s="168" t="s">
-        <v>187</v>
-      </c>
-      <c r="E78" s="169"/>
-      <c r="F78" s="169"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="131"/>
-      <c r="J78" s="93"/>
-    </row>
-    <row r="79" spans="1:10" s="92" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A79" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="137"/>
-      <c r="E79" s="137"/>
-      <c r="F79" s="137"/>
-      <c r="G79" s="137"/>
-      <c r="H79" s="137"/>
-      <c r="I79" s="137"/>
-      <c r="J79" s="138"/>
-    </row>
-    <row r="80" spans="1:10" s="92" customFormat="1" ht="70.95" customHeight="1" outlineLevel="1">
-      <c r="A80" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="123" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="142" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="113"/>
-      <c r="J80" s="93"/>
-    </row>
-    <row r="81" spans="1:10" s="92" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A81" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="123" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" s="142" t="s">
-        <v>195</v>
-      </c>
-      <c r="E81" s="143"/>
-      <c r="F81" s="143"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="93"/>
-    </row>
-    <row r="82" spans="1:10" s="4" customFormat="1" ht="82.2" customHeight="1">
-      <c r="A82" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="E82" s="143"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="93"/>
-    </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A83" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="C83" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="E83" s="143"/>
-      <c r="F83" s="143"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="93"/>
-    </row>
-    <row r="84" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A84" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E84" s="143"/>
-      <c r="F84" s="143"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="126"/>
-      <c r="J84" s="93"/>
-    </row>
-    <row r="85" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A85" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="143"/>
-      <c r="F85" s="143"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="93"/>
-    </row>
-    <row r="86" spans="1:10" s="4" customFormat="1" ht="90.6" customHeight="1" outlineLevel="1">
-      <c r="A86" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="123" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" s="143"/>
-      <c r="F86" s="143"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="93"/>
-    </row>
-    <row r="87" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A87" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="123" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="93"/>
-    </row>
-    <row r="88" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A88" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="D88" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="93"/>
-    </row>
-    <row r="89" spans="1:10" s="4" customFormat="1" ht="39.6" outlineLevel="1">
-      <c r="A89" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="C89" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D89" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="E89" s="143"/>
-      <c r="F89" s="143"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="104"/>
-      <c r="I89" s="126"/>
-      <c r="J89" s="93"/>
-    </row>
-    <row r="90" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A90" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E90" s="143"/>
-      <c r="F90" s="143"/>
-      <c r="H90" s="104"/>
-      <c r="I90" s="126"/>
-      <c r="J90" s="93"/>
-    </row>
-    <row r="91" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A91" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="143"/>
-      <c r="F91" s="143"/>
-      <c r="H91" s="104"/>
-      <c r="I91" s="126"/>
-      <c r="J91" s="93"/>
-    </row>
-    <row r="92" spans="1:10" s="4" customFormat="1" ht="52.8" outlineLevel="1">
-      <c r="A92" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="C92" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" s="143"/>
-      <c r="F92" s="143"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="104"/>
-      <c r="I92" s="126"/>
-      <c r="J92" s="93"/>
-    </row>
-    <row r="93" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A93" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E93" s="143"/>
-      <c r="F93" s="143"/>
-      <c r="H93" s="104"/>
-      <c r="I93" s="126"/>
-      <c r="J93" s="93"/>
-    </row>
-    <row r="94" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A94" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E94" s="143"/>
-      <c r="F94" s="143"/>
-      <c r="H94" s="104"/>
-      <c r="I94" s="126"/>
-      <c r="J94" s="93"/>
-    </row>
-    <row r="95" spans="1:10" s="4" customFormat="1" ht="70.2" customHeight="1">
-      <c r="A95" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95" s="143"/>
-      <c r="F95" s="143"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="104"/>
-      <c r="I95" s="126"/>
-      <c r="J95" s="93"/>
-    </row>
-    <row r="96" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A96" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="C96" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E96" s="143"/>
-      <c r="F96" s="143"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="126"/>
-      <c r="J96" s="93"/>
-    </row>
-    <row r="97" spans="1:10" s="92" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A97" s="107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C97" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E97" s="143"/>
-      <c r="F97" s="143"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="126"/>
-      <c r="J97" s="93"/>
-    </row>
-    <row r="98" spans="1:10" ht="76.95" customHeight="1">
-      <c r="A98" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="C98" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E98" s="143"/>
-      <c r="F98" s="143"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="104"/>
-      <c r="I98" s="126"/>
-      <c r="J98" s="93"/>
-    </row>
-    <row r="99" spans="1:10" ht="58.2" customHeight="1">
-      <c r="A99" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="123" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="E99" s="143"/>
-      <c r="F99" s="143"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="93"/>
-    </row>
-    <row r="100" spans="1:10" ht="60" customHeight="1">
-      <c r="A100" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D100" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="143"/>
-      <c r="F100" s="143"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="104"/>
-      <c r="I100" s="126"/>
-      <c r="J100" s="93"/>
-    </row>
-    <row r="101" spans="1:10" ht="12" customHeight="1"/>
-    <row r="102" spans="1:10" ht="12" customHeight="1"/>
-    <row r="103" spans="1:10" ht="12" customHeight="1"/>
-    <row r="104" spans="1:10" ht="12" customHeight="1"/>
-    <row r="105" spans="1:10" ht="12" customHeight="1"/>
-    <row r="106" spans="1:10" ht="12" customHeight="1"/>
-    <row r="107" spans="1:10" ht="12" customHeight="1"/>
-    <row r="108" spans="1:10" ht="12" customHeight="1"/>
-    <row r="109" spans="1:10" ht="12" customHeight="1"/>
-    <row r="110" spans="1:10" ht="12" customHeight="1"/>
-    <row r="111" spans="1:10" ht="12" customHeight="1"/>
-    <row r="112" spans="1:10" ht="12" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
-    <row r="115" ht="12" customHeight="1"/>
-    <row r="116" ht="12" customHeight="1"/>
-    <row r="117" ht="12" customHeight="1"/>
-    <row r="118" ht="12" customHeight="1"/>
-    <row r="119" ht="12" customHeight="1"/>
-    <row r="120" ht="12" customHeight="1"/>
-    <row r="121" ht="12" customHeight="1"/>
-    <row r="122" ht="12" customHeight="1"/>
-    <row r="123" ht="12" customHeight="1"/>
-    <row r="124" ht="12" customHeight="1"/>
-    <row r="125" ht="12" customHeight="1"/>
-    <row r="126" ht="12" customHeight="1"/>
-    <row r="127" ht="12" customHeight="1"/>
-    <row r="128" ht="12" customHeight="1"/>
+      <c r="E113" s="147"/>
+      <c r="F113" s="147"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="103"/>
+      <c r="I113" s="120"/>
+      <c r="J113" s="93"/>
+    </row>
+    <row r="114" spans="1:10" ht="12" customHeight="1"/>
+    <row r="115" spans="1:10" ht="12" customHeight="1"/>
+    <row r="116" spans="1:10" ht="12" customHeight="1"/>
+    <row r="117" spans="1:10" ht="12" customHeight="1"/>
+    <row r="118" spans="1:10" ht="12" customHeight="1"/>
+    <row r="119" spans="1:10" ht="12" customHeight="1"/>
+    <row r="120" spans="1:10" ht="12" customHeight="1"/>
+    <row r="121" spans="1:10" ht="12" customHeight="1"/>
+    <row r="122" spans="1:10" ht="12" customHeight="1"/>
+    <row r="123" spans="1:10" ht="12" customHeight="1"/>
+    <row r="124" spans="1:10" ht="12" customHeight="1"/>
+    <row r="125" spans="1:10" ht="12" customHeight="1"/>
+    <row r="126" spans="1:10" ht="12" customHeight="1"/>
+    <row r="127" spans="1:10" ht="12" customHeight="1"/>
+    <row r="128" spans="1:10" ht="12" customHeight="1"/>
     <row r="129" ht="12" customHeight="1"/>
     <row r="130" ht="12" customHeight="1"/>
     <row r="131" ht="12" customHeight="1"/>
@@ -4588,83 +4985,108 @@
     <row r="133" ht="12" customHeight="1"/>
     <row r="134" ht="12" customHeight="1"/>
     <row r="135" ht="12" customHeight="1"/>
+    <row r="136" ht="12" customHeight="1"/>
+    <row r="137" ht="12" customHeight="1"/>
+    <row r="138" ht="12" customHeight="1"/>
+    <row r="139" ht="12" customHeight="1"/>
+    <row r="140" ht="12" customHeight="1"/>
+    <row r="141" ht="12" customHeight="1"/>
+    <row r="142" ht="12" customHeight="1"/>
+    <row r="143" ht="12" customHeight="1"/>
+    <row r="144" ht="12" customHeight="1"/>
+    <row r="145" ht="12" customHeight="1"/>
+    <row r="146" ht="12" customHeight="1"/>
+    <row r="147" ht="12" customHeight="1"/>
+    <row r="148" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D93:F93"/>
+  <mergeCells count="114">
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D58:F58"/>
     <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D80:F80"/>
     <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A92:J92"/>
     <mergeCell ref="D94:F94"/>
     <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D75:F75"/>
     <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="A77:J77"/>
     <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D51:F51"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D67:F67"/>
     <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A71:J71"/>
     <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D47:F47"/>
     <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D46:F46"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="A31:J31"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -4678,24 +5100,20 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A35:J35"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4752,7 +5170,7 @@
       <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="100"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -4820,7 +5238,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8">
@@ -4852,7 +5270,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8">
